--- a/data/trans_dic/Q25_A_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2984311920686482</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2301382064676649</v>
+        <v>0.230138206467665</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1574881520812186</v>
+        <v>0.147510009774199</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2199239682646379</v>
+        <v>0.2206123481097348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1775293722723316</v>
+        <v>0.1834896552298776</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1302313891015168</v>
+        <v>0.117552654699107</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.30993458667457</v>
+        <v>0.2942736782829373</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2339860015649511</v>
+        <v>0.2269038234600239</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2266406526804453</v>
+        <v>0.2180788382698332</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1111821101476981</v>
+        <v>0.1122572792240527</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2416043132988664</v>
+        <v>0.247955808089728</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2542746699443754</v>
+        <v>0.2546676288416326</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2216656113007785</v>
+        <v>0.2211933161468634</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1473479480394934</v>
+        <v>0.1504268517156301</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4017462578222324</v>
+        <v>0.4068563447898124</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.448813726861704</v>
+        <v>0.4301221329980683</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3781658773250018</v>
+        <v>0.3839556033505644</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3684362282259465</v>
+        <v>0.3469067725125483</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7681699700893527</v>
+        <v>0.7506643867500991</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5453909749145746</v>
+        <v>0.5585416410419661</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4882031616497366</v>
+        <v>0.4772885311752938</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4502825252348765</v>
+        <v>0.4482876169438377</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.48194865165027</v>
+        <v>0.4755345732028174</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4381750418572752</v>
+        <v>0.4387218558218398</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3792857891823201</v>
+        <v>0.3887841755396986</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3359613046114852</v>
+        <v>0.3305562363285507</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3346069714736383</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2732199383741768</v>
+        <v>0.2732199383741769</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2936769496921664</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1640026849927313</v>
+        <v>0.16880546532223</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.201505639252231</v>
+        <v>0.2084064325026072</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.200699940913919</v>
+        <v>0.2011396665441851</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1104512907335493</v>
+        <v>0.1070773534406621</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.334456939931265</v>
+        <v>0.310613806590925</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.301643716726779</v>
+        <v>0.2984566195512728</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2002918508197965</v>
+        <v>0.1792291037080021</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1835884900310535</v>
+        <v>0.1808342322968505</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2217980791159805</v>
+        <v>0.2234360255113115</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2543260448589954</v>
+        <v>0.2509178802474638</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2245738829599676</v>
+        <v>0.2206525756428167</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1583345059033207</v>
+        <v>0.1590417303383873</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3285572711762259</v>
+        <v>0.337131169774427</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3549731306969824</v>
+        <v>0.3653741284279551</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3966812886376277</v>
+        <v>0.3986373151799745</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2845746200831205</v>
+        <v>0.279301078964683</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6995785834563949</v>
+        <v>0.7272009211062339</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5682060152132427</v>
+        <v>0.5639277589236059</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4937142457776024</v>
+        <v>0.4832562348765835</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3862120450542747</v>
+        <v>0.3879532984727345</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3766882164403307</v>
+        <v>0.3720274312720654</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3924537023951841</v>
+        <v>0.3930536244939117</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3968873962889599</v>
+        <v>0.3865185404961277</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2901168972847383</v>
+        <v>0.2879839593777072</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07671966497245797</v>
+        <v>0.07639847524524433</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1822847444036601</v>
+        <v>0.1768462206723402</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1412604403065917</v>
+        <v>0.1367382550622337</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1486584321240071</v>
+        <v>0.14942548911487</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2155420116174894</v>
+        <v>0.2225467679788156</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2292197642052631</v>
+        <v>0.2276273881487513</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2095502036875831</v>
+        <v>0.2181690593586385</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1990460147493761</v>
+        <v>0.2033047754993049</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1260438730059791</v>
+        <v>0.1285906781776515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2151524123945879</v>
+        <v>0.2212916392571472</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1896473018086999</v>
+        <v>0.1979101319178629</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2035942349898269</v>
+        <v>0.1951559176739736</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2670007707122667</v>
+        <v>0.2725596279223586</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3606045043570263</v>
+        <v>0.3538403169474286</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3432496693552046</v>
+        <v>0.334272529453199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3531722944109693</v>
+        <v>0.3558963651403013</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7124808790591345</v>
+        <v>0.7786647406858394</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5968104134233753</v>
+        <v>0.5820645481204231</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5510509894602289</v>
+        <v>0.5548701361558771</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4226117928829504</v>
+        <v>0.4352512607612261</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3183337612796944</v>
+        <v>0.3088522167332607</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3901144877960812</v>
+        <v>0.3980489609741552</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3611277964224099</v>
+        <v>0.3687152760959422</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3553680008147675</v>
+        <v>0.3488336936725993</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.149971674262622</v>
+        <v>0.1516218286965829</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1678690500327392</v>
+        <v>0.1670741441437793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1241294410940716</v>
+        <v>0.1255186371730865</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07120579281349171</v>
+        <v>0.06602841130514216</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2026412887525491</v>
+        <v>0.1981172770863945</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2249676829445808</v>
+        <v>0.2138285049552801</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1346525291408919</v>
+        <v>0.1485052966124268</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1722387946225043</v>
+        <v>0.1680708731157675</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1913042387701518</v>
+        <v>0.1948597342199621</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.21572326531892</v>
+        <v>0.2083969621890163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1601925200856289</v>
+        <v>0.1486792267282691</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1254287781327035</v>
+        <v>0.12601651944264</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3364075145902352</v>
+        <v>0.3356583811481507</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3373438943598353</v>
+        <v>0.3382678709262441</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.296108061839975</v>
+        <v>0.2972839975076568</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2465039239836153</v>
+        <v>0.2395837544425915</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4978576963854198</v>
+        <v>0.4853052371260765</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5022753043388991</v>
+        <v>0.4751454273270611</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.38938114000541</v>
+        <v>0.3955390231452328</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3565298215690852</v>
+        <v>0.3616495986106444</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3438924227768937</v>
+        <v>0.3520001611547832</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3644618062441295</v>
+        <v>0.3539395008583241</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2920863629093177</v>
+        <v>0.2875208785550584</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2511123881520544</v>
+        <v>0.2540924481324079</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2616797112862367</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2018203100230878</v>
+        <v>0.2018203100230879</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4126246857171411</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.129943778034671</v>
+        <v>0.1214782092100652</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2046783620336265</v>
+        <v>0.2096559628688334</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.129925076914836</v>
+        <v>0.1456888382488102</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04747221850644462</v>
+        <v>0.07515534447666013</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2356188245182394</v>
+        <v>0.2158047210210949</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1813245854873351</v>
+        <v>0.1783506349410319</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2935896826788029</v>
+        <v>0.2864258716809152</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05243209472042235</v>
+        <v>0.04946310549095922</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2107884483014046</v>
+        <v>0.2002981654834168</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2326852205560823</v>
+        <v>0.2285085075004846</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2265656832346525</v>
+        <v>0.2167909877356521</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1115279877737009</v>
+        <v>0.1130594903356779</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4147637224629808</v>
+        <v>0.3948525505921864</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4831297780806103</v>
+        <v>0.5006444249174437</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4252847051880409</v>
+        <v>0.4271183224359945</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3787113562662761</v>
+        <v>0.4071640984268382</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6043360235896398</v>
+        <v>0.6046889399396976</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5427646827827766</v>
+        <v>0.5473988333950689</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7299380289548496</v>
+        <v>0.6988231524170995</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5505613185656802</v>
+        <v>0.5087615143973744</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4431436588813426</v>
+        <v>0.4392585801512904</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4621710404769093</v>
+        <v>0.4584877881526567</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4659468801076774</v>
+        <v>0.4680305934409708</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3760196556319574</v>
+        <v>0.3959848827225619</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1759046405345965</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1419098504085917</v>
+        <v>0.1419098504085916</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.523841477297024</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2202939150189535</v>
+        <v>0.2136122538305087</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.24241173791823</v>
+        <v>0.2395224068704063</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09707302619154076</v>
+        <v>0.08558689342333267</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06695863999566733</v>
+        <v>0.0652341361028945</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2884476593871122</v>
+        <v>0.2908962450541066</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3035423110749179</v>
+        <v>0.2933100213000163</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1726657523973534</v>
+        <v>0.1700874889883648</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05900720530955893</v>
+        <v>0.1015538215535938</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2683480939240232</v>
+        <v>0.2781606174199988</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2732183862769571</v>
+        <v>0.2797620503754593</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1426702332226071</v>
+        <v>0.1387356116996022</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08899104076492062</v>
+        <v>0.08738732757116173</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4860559815601919</v>
+        <v>0.4864656665619114</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4495579785018509</v>
+        <v>0.4475934676301055</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3071315614640699</v>
+        <v>0.3040348008407827</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2676024520393617</v>
+        <v>0.2596871481158715</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7568257346612244</v>
+        <v>0.7565729224226189</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7390306602605807</v>
+        <v>0.7300551912562446</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.651386640123281</v>
+        <v>0.6437914504744483</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5223794864134019</v>
+        <v>0.5544946894851264</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5113449115497684</v>
+        <v>0.5106532713373351</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.47153340241849</v>
+        <v>0.4654776050183211</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3359229620016283</v>
+        <v>0.3351476705023115</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2651578763349192</v>
+        <v>0.2714508304036398</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1457779257334706</v>
+        <v>0.1486387523305329</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1642801290354713</v>
+        <v>0.1710589003300017</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2140498970608372</v>
+        <v>0.20979387484008</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06821959307927584</v>
+        <v>0.07319595949090583</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1577280007290024</v>
+        <v>0.1583699171842865</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1801024554875043</v>
+        <v>0.1874824053756944</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2108897288491697</v>
+        <v>0.2120807884317698</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1822543482179233</v>
+        <v>0.1889613202496515</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1831504796435511</v>
+        <v>0.1896421963251057</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1907606152241083</v>
+        <v>0.1952588458433145</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2330388857400264</v>
+        <v>0.2362698143120084</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1313138749905073</v>
+        <v>0.1332040948704539</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.326024646775069</v>
+        <v>0.325006746670749</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2947759748508718</v>
+        <v>0.3023392731404912</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3799517516821888</v>
+        <v>0.3655303373509061</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1835072605654643</v>
+        <v>0.2017106078998744</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4799875674536618</v>
+        <v>0.4824954436568175</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3833709862007135</v>
+        <v>0.3839786209199717</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4143804765763807</v>
+        <v>0.4133791758801259</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3508857951243345</v>
+        <v>0.3532409241968922</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.338087878082083</v>
+        <v>0.3433580735911885</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3028775893371846</v>
+        <v>0.3045833040827273</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.365193929088496</v>
+        <v>0.3603746291055571</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2336981893680397</v>
+        <v>0.2345615848461119</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1715825203749814</v>
+        <v>0.1708466576649224</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.167986968589986</v>
+        <v>0.1710077922151344</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1120709724529592</v>
+        <v>0.1069877772619637</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05960818991212668</v>
+        <v>0.05849430069445472</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.168551783104115</v>
+        <v>0.169897675124273</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2614528459626128</v>
+        <v>0.2562865900749185</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1650254171799141</v>
+        <v>0.1515042656084814</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1575083610186079</v>
+        <v>0.1592371415041268</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1969210810135462</v>
+        <v>0.1884947703224918</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.219395519388459</v>
+        <v>0.22580896819114</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1452560623695252</v>
+        <v>0.1424713666169761</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1043685858057304</v>
+        <v>0.1038315628766492</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3145059997303879</v>
+        <v>0.3221370163657918</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3308869287813433</v>
+        <v>0.3290642335801378</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2390252583665835</v>
+        <v>0.2359155604591185</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1655666140720145</v>
+        <v>0.1716122065547924</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3675802268736515</v>
+        <v>0.3761741236260562</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4978956572861561</v>
+        <v>0.4974184282984516</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3607592492828867</v>
+        <v>0.358307811663825</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4292885788668001</v>
+        <v>0.4077862109722292</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3171580235671516</v>
+        <v>0.3123504705479276</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3588023095243101</v>
+        <v>0.3516460687994764</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2607268740315275</v>
+        <v>0.258230842861448</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2127511070374003</v>
+        <v>0.2127324145443902</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2031807691993537</v>
+        <v>0.203486756068087</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.233622780782563</v>
+        <v>0.2343413397403316</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2068965175451543</v>
+        <v>0.2031136499220758</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1275767917852418</v>
+        <v>0.1265673933661295</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3210724705095344</v>
+        <v>0.3119388067854633</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3150182362868461</v>
+        <v>0.3198234149856945</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2669612256824668</v>
+        <v>0.2695284961120149</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2271923559926061</v>
+        <v>0.2282558521993859</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2485066853999754</v>
+        <v>0.2451247979017531</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2718429117237569</v>
+        <v>0.272045604986772</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2331613379109153</v>
+        <v>0.2372730898037181</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1710660767008779</v>
+        <v>0.1734642842021262</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2751687751551213</v>
+        <v>0.2743395467585525</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2976004358509413</v>
+        <v>0.2984479517284522</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2706394286929741</v>
+        <v>0.2670454791690278</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1875025410583235</v>
+        <v>0.1865264721875296</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4430311212792322</v>
+        <v>0.4418790576799023</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.415923132293976</v>
+        <v>0.4206206050259827</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3609156501673641</v>
+        <v>0.3656569510912325</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3122210453938706</v>
+        <v>0.3171903113974662</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3114687061958223</v>
+        <v>0.3102532536489335</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3253630244229864</v>
+        <v>0.3261322665129968</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2885631249987764</v>
+        <v>0.2925783854420679</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2240380353180568</v>
+        <v>0.2241318849962466</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7026</v>
+        <v>6581</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17620</v>
+        <v>17675</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14335</v>
+        <v>14816</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6397</v>
+        <v>5775</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6221</v>
+        <v>5907</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9367</v>
+        <v>9084</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12426</v>
+        <v>11956</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1383</v>
+        <v>1396</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15628</v>
+        <v>16039</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>30551</v>
+        <v>30598</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30051</v>
+        <v>29987</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9071</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17923</v>
+        <v>18151</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35958</v>
+        <v>34460</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>30535</v>
+        <v>31002</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18099</v>
+        <v>17041</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15419</v>
+        <v>15068</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21834</v>
+        <v>22360</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26766</v>
+        <v>26168</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5600</v>
+        <v>5575</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31175</v>
+        <v>30760</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>52647</v>
+        <v>52712</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51420</v>
+        <v>52707</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20682</v>
+        <v>20349</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18332</v>
+        <v>18869</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24820</v>
+        <v>25670</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16856</v>
+        <v>16893</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12834</v>
+        <v>12442</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8647</v>
+        <v>8031</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19270</v>
+        <v>19067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7818</v>
+        <v>6996</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11943</v>
+        <v>11764</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30527</v>
+        <v>30752</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>47573</v>
+        <v>46936</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27627</v>
+        <v>27145</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>28698</v>
+        <v>28826</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36726</v>
+        <v>37685</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>43723</v>
+        <v>45005</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33316</v>
+        <v>33481</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>33066</v>
+        <v>32453</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18087</v>
+        <v>18801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36299</v>
+        <v>36026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>19271</v>
+        <v>18863</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25124</v>
+        <v>25238</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>51845</v>
+        <v>51204</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>73411</v>
+        <v>73523</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>48825</v>
+        <v>47550</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>52583</v>
+        <v>52197</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4817</v>
+        <v>4797</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16182</v>
+        <v>15699</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9539</v>
+        <v>9234</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9779</v>
+        <v>9829</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3068</v>
+        <v>3168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7847</v>
+        <v>7792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6375</v>
+        <v>6637</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9880</v>
+        <v>10091</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9709</v>
+        <v>9905</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>26465</v>
+        <v>27220</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>18576</v>
+        <v>19385</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>23498</v>
+        <v>22524</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16765</v>
+        <v>17114</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32012</v>
+        <v>31412</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23179</v>
+        <v>22572</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23232</v>
+        <v>23411</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10143</v>
+        <v>11085</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20430</v>
+        <v>19925</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16764</v>
+        <v>16880</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20977</v>
+        <v>21604</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24520</v>
+        <v>23789</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>47986</v>
+        <v>48962</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>35372</v>
+        <v>36115</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>41016</v>
+        <v>40261</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11380</v>
+        <v>11505</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17525</v>
+        <v>17442</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12263</v>
+        <v>12400</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7454</v>
+        <v>6912</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7870</v>
+        <v>7694</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10459</v>
+        <v>9941</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6828</v>
+        <v>7530</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11137</v>
+        <v>10868</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21945</v>
+        <v>22353</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>32550</v>
+        <v>31445</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>23948</v>
+        <v>22227</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>21240</v>
+        <v>21340</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25527</v>
+        <v>25470</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35217</v>
+        <v>35314</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29253</v>
+        <v>29369</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25803</v>
+        <v>25079</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19334</v>
+        <v>18847</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23352</v>
+        <v>22090</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19744</v>
+        <v>20056</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23054</v>
+        <v>23385</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>39450</v>
+        <v>40380</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>54993</v>
+        <v>53405</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>43666</v>
+        <v>42984</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>42523</v>
+        <v>43028</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5259</v>
+        <v>4917</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10119</v>
+        <v>10365</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5823</v>
+        <v>6529</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>745</v>
+        <v>1180</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6625</v>
+        <v>6068</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4869</v>
+        <v>4789</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5855</v>
+        <v>5712</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>14458</v>
+        <v>13739</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>17752</v>
+        <v>17433</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>14672</v>
+        <v>14039</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2736</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16787</v>
+        <v>15981</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23885</v>
+        <v>24751</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19059</v>
+        <v>19141</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>5945</v>
+        <v>6391</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16993</v>
+        <v>17003</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14574</v>
+        <v>14699</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>14557</v>
+        <v>13937</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>4863</v>
+        <v>4493</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>30396</v>
+        <v>30129</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>35259</v>
+        <v>34978</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>30174</v>
+        <v>30309</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>9223</v>
+        <v>9713</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11273</v>
+        <v>10931</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>20616</v>
+        <v>20371</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4903</v>
+        <v>4323</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2982</v>
+        <v>2905</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5086</v>
+        <v>5129</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6632</v>
+        <v>6409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2901</v>
+        <v>2857</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>679</v>
+        <v>1168</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>18464</v>
+        <v>19139</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>29206</v>
+        <v>29905</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>9603</v>
+        <v>9338</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>4987</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24872</v>
+        <v>24893</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>38234</v>
+        <v>38066</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15514</v>
+        <v>15357</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11918</v>
+        <v>11565</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>13345</v>
+        <v>13341</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>16147</v>
+        <v>15951</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10943</v>
+        <v>10816</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6007</v>
+        <v>6377</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>35183</v>
+        <v>35135</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>50405</v>
+        <v>49758</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>22611</v>
+        <v>22559</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>14858</v>
+        <v>15211</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>13079</v>
+        <v>13335</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>27714</v>
+        <v>28858</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>28073</v>
+        <v>27515</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>9792</v>
+        <v>10507</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4799</v>
+        <v>4818</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>16537</v>
+        <v>17214</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>18384</v>
+        <v>18488</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>19142</v>
+        <v>19846</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>22004</v>
+        <v>22783</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>49696</v>
+        <v>50868</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>50878</v>
+        <v>51584</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>32641</v>
+        <v>33110</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>29250</v>
+        <v>29159</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>49729</v>
+        <v>51005</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>49831</v>
+        <v>47940</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>26341</v>
+        <v>28954</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>14603</v>
+        <v>14679</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>35200</v>
+        <v>35256</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>36123</v>
+        <v>36036</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>36853</v>
+        <v>37100</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>40618</v>
+        <v>41251</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>78905</v>
+        <v>79349</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>79731</v>
+        <v>78679</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>58090</v>
+        <v>58305</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>23424</v>
+        <v>23324</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>21536</v>
+        <v>21923</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>15472</v>
+        <v>14770</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>6768</v>
+        <v>6642</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>12356</v>
+        <v>12454</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>17245</v>
+        <v>16904</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>13816</v>
+        <v>12684</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>6735</v>
+        <v>6809</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>41319</v>
+        <v>39551</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>42597</v>
+        <v>43842</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>32215</v>
+        <v>31597</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>16313</v>
+        <v>16229</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>42936</v>
+        <v>43978</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>42419</v>
+        <v>42185</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>32999</v>
+        <v>32570</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>18799</v>
+        <v>19485</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>26945</v>
+        <v>27575</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>32840</v>
+        <v>32809</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>30203</v>
+        <v>29998</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>18356</v>
+        <v>17437</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>66547</v>
+        <v>65539</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>69664</v>
+        <v>68274</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>57823</v>
+        <v>57270</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>33253</v>
+        <v>33251</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>124538</v>
+        <v>124726</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>193403</v>
+        <v>193998</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>143915</v>
+        <v>141283</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>83319</v>
+        <v>82660</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>79778</v>
+        <v>77509</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>123209</v>
+        <v>125088</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>102146</v>
+        <v>103128</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>81768</v>
+        <v>82151</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>214068</v>
+        <v>211155</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>331366</v>
+        <v>331613</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>251397</v>
+        <v>255830</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>173290</v>
+        <v>175719</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>168663</v>
+        <v>168155</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>246367</v>
+        <v>247068</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>188253</v>
+        <v>185753</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>122456</v>
+        <v>121819</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>110082</v>
+        <v>109796</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>162675</v>
+        <v>164512</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>138095</v>
+        <v>139909</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>112371</v>
+        <v>114159</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>268305</v>
+        <v>267258</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>396605</v>
+        <v>397543</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>311132</v>
+        <v>315461</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>226950</v>
+        <v>227045</v>
       </c>
     </row>
     <row r="40">
